--- a/public/static/images/UtilisateurTest.xlsx
+++ b/public/static/images/UtilisateurTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\BTSannee2\ReservationSandwich\public\static\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\BTSannee2\Stage\AssocSportive\public\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F64DA1-D5C8-47A8-B76B-B8913D183167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE65C9D9-BECD-4AF3-B73B-90E66533E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7775D734-23C5-44F6-A72F-8EDF7D4CD885}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nom</t>
   </si>
@@ -51,22 +51,22 @@
     <t>Fonction</t>
   </si>
   <si>
+    <t>Elève</t>
+  </si>
+  <si>
+    <t>Comptable</t>
+  </si>
+  <si>
+    <t>Enseignant</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>Date de naissance</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
-    <t>Élève</t>
-  </si>
-  <si>
-    <t>Cuisinier</t>
-  </si>
-  <si>
-    <t>Adulte</t>
+    <t>(Obligatoire pour les élèves)</t>
   </si>
 </sst>
 </file>
@@ -446,48 +446,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DABC03A-9B33-4992-8E34-80F4B338DA00}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="21.81640625" customWidth="1"/>
+    <col min="1" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" customWidth="1"/>
     <col min="5" max="5" width="25.453125" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -497,7 +493,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -507,7 +503,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -517,7 +513,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -527,16 +523,6 @@
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
